--- a/v12_restricted_params/Params.xlsx
+++ b/v12_restricted_params/Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Malaria-Uganda-PRISM\v12_restricted_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E767ABC-1DDB-45AD-83BD-9BD82BDC81F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C717057D-8B3B-4EB1-9486-0B8D3A045A7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2033" yWindow="2460" windowWidth="16874" windowHeight="10523" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
